--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CubeA-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CubeA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1193,7 +1193,7 @@
         <v>1.029714758963691</v>
       </c>
       <c r="L15">
-        <v>0.8954914636872459</v>
+        <v>0.8954914636872461</v>
       </c>
       <c r="M15">
         <v>1.099346011518488</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9865106205291384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.7618749660278448</v>
+      </c>
+      <c r="D16">
+        <v>1.342963186989</v>
+      </c>
+      <c r="E16">
+        <v>0.9519747158388456</v>
+      </c>
+      <c r="F16">
+        <v>1.054547556704468</v>
+      </c>
+      <c r="G16">
+        <v>0.7618749660278448</v>
+      </c>
+      <c r="H16">
+        <v>1.342963186989</v>
+      </c>
+      <c r="I16">
+        <v>0.8963520568295001</v>
+      </c>
+      <c r="J16">
+        <v>1.059311935314379</v>
+      </c>
+      <c r="K16">
+        <v>0.8977606274731419</v>
+      </c>
+      <c r="L16">
+        <v>1.201449708837466</v>
+      </c>
+      <c r="M16">
+        <v>0.7618749660278448</v>
+      </c>
+      <c r="N16">
+        <v>1.147468951413923</v>
+      </c>
+      <c r="O16">
+        <v>1.02784010639004</v>
+      </c>
+      <c r="P16">
+        <v>1.02077934425183</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.7618749660278448</v>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW25.xlsx
@@ -1196,7 +1196,7 @@
         <v>1.029714758963691</v>
       </c>
       <c r="L15">
-        <v>0.8954914636872461</v>
+        <v>0.8954914636872459</v>
       </c>
       <c r="M15">
         <v>1.099346011518488</v>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4634119999999995</v>
+        <v>0.7618749660278448</v>
       </c>
       <c r="D10">
-        <v>1.947848000000001</v>
+        <v>1.342963186989</v>
       </c>
       <c r="E10">
-        <v>0.7659160000000005</v>
+        <v>0.9519747158388456</v>
       </c>
       <c r="F10">
-        <v>1.182999999999997</v>
+        <v>1.054547556704468</v>
       </c>
       <c r="G10">
-        <v>0.4634119999999995</v>
+        <v>0.7618749660278448</v>
       </c>
       <c r="H10">
-        <v>1.947848000000001</v>
+        <v>1.342963186989</v>
       </c>
       <c r="I10">
-        <v>0.6829880000000003</v>
+        <v>0.8963520568295001</v>
       </c>
       <c r="J10">
-        <v>1.136060000000001</v>
+        <v>1.059311935314379</v>
       </c>
       <c r="K10">
-        <v>0.7768200000000003</v>
+        <v>0.8977606274731419</v>
       </c>
       <c r="L10">
-        <v>1.530199999999998</v>
+        <v>1.201449708837466</v>
       </c>
       <c r="M10">
-        <v>0.4634119999999995</v>
+        <v>0.7618749660278448</v>
       </c>
       <c r="N10">
-        <v>1.356882000000001</v>
+        <v>1.147468951413923</v>
       </c>
       <c r="O10">
-        <v>1.090043999999999</v>
+        <v>1.02784010639004</v>
       </c>
       <c r="P10">
-        <v>1.0607805</v>
+        <v>1.02077934425183</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.6189703961075463</v>
       </c>
       <c r="D11">
-        <v>2.57</v>
+        <v>1.461931455641121</v>
       </c>
       <c r="E11">
-        <v>0.53</v>
+        <v>0.9484343659321822</v>
       </c>
       <c r="F11">
-        <v>1.310550000000001</v>
+        <v>1.088055568034605</v>
       </c>
       <c r="G11">
-        <v>0.25</v>
+        <v>0.6189703961075463</v>
       </c>
       <c r="H11">
-        <v>2.57</v>
+        <v>1.461931455641121</v>
       </c>
       <c r="I11">
-        <v>0.4608249999999997</v>
+        <v>0.8463812374645328</v>
       </c>
       <c r="J11">
-        <v>1.17</v>
+        <v>1.113133610327921</v>
       </c>
       <c r="K11">
-        <v>0.68</v>
+        <v>0.8515275816742304</v>
       </c>
       <c r="L11">
-        <v>1.8727625</v>
+        <v>1.291269007727922</v>
       </c>
       <c r="M11">
-        <v>0.25</v>
+        <v>0.6189703961075463</v>
       </c>
       <c r="N11">
-        <v>1.55</v>
+        <v>1.205182910786652</v>
       </c>
       <c r="O11">
-        <v>1.1651375</v>
+        <v>1.029347946428864</v>
       </c>
       <c r="P11">
-        <v>1.1055171875</v>
+        <v>1.027462902863758</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5620568602624005</v>
+        <v>0.6199162849221839</v>
       </c>
       <c r="D12">
-        <v>1.9114556407808</v>
+        <v>1.459026196222443</v>
       </c>
       <c r="E12">
-        <v>0.7238830004223979</v>
+        <v>0.9494616962368416</v>
       </c>
       <c r="F12">
-        <v>1.1762715988992</v>
+        <v>1.08750873796041</v>
       </c>
       <c r="G12">
-        <v>0.5620568602624005</v>
+        <v>0.6199162849221839</v>
       </c>
       <c r="H12">
-        <v>1.9114556407808</v>
+        <v>1.459026196222443</v>
       </c>
       <c r="I12">
-        <v>0.6866615920640008</v>
+        <v>0.8473729857073778</v>
       </c>
       <c r="J12">
-        <v>1.100670355763201</v>
+        <v>1.113003891487454</v>
       </c>
       <c r="K12">
-        <v>0.8107865309184008</v>
+        <v>0.8519856149342236</v>
       </c>
       <c r="L12">
-        <v>1.506247258931197</v>
+        <v>1.289682161071232</v>
       </c>
       <c r="M12">
-        <v>0.5620568602624005</v>
+        <v>0.6199162849221839</v>
       </c>
       <c r="N12">
-        <v>1.317669320601599</v>
+        <v>1.204243946229642</v>
       </c>
       <c r="O12">
-        <v>1.093416775091199</v>
+        <v>1.02897822883547</v>
       </c>
       <c r="P12">
-        <v>1.0597541047552</v>
+        <v>1.027244696067771</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9928659333933656</v>
+        <v>0.6191594854192468</v>
       </c>
       <c r="D13">
-        <v>0.9947532445060715</v>
+        <v>1.461341888081326</v>
       </c>
       <c r="E13">
-        <v>0.9987131245920812</v>
+        <v>0.9485901815926989</v>
       </c>
       <c r="F13">
-        <v>0.9978421068447468</v>
+        <v>1.087904925080094</v>
       </c>
       <c r="G13">
-        <v>0.9928659333933656</v>
+        <v>0.6191594854192468</v>
       </c>
       <c r="H13">
-        <v>0.9947532445060715</v>
+        <v>1.461341888081326</v>
       </c>
       <c r="I13">
-        <v>0.9972460587440232</v>
+        <v>0.846580111367041</v>
       </c>
       <c r="J13">
-        <v>0.9946392705666832</v>
+        <v>1.113153222149066</v>
       </c>
       <c r="K13">
-        <v>0.9948985477501557</v>
+        <v>0.8516239523561192</v>
       </c>
       <c r="L13">
-        <v>0.9993227691788865</v>
+        <v>1.291025223311981</v>
       </c>
       <c r="M13">
-        <v>0.9928659333933656</v>
+        <v>0.6191594854192468</v>
       </c>
       <c r="N13">
-        <v>0.9967331845490763</v>
+        <v>1.204966034837013</v>
       </c>
       <c r="O13">
-        <v>0.9960436023340662</v>
+        <v>1.029249120043342</v>
       </c>
       <c r="P13">
-        <v>0.9962851319470016</v>
+        <v>1.027422373669697</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.026335940885563</v>
+        <v>0.4634119999999995</v>
       </c>
       <c r="D14">
-        <v>0.9497030985109445</v>
+        <v>1.947848000000001</v>
       </c>
       <c r="E14">
-        <v>1.007250453997243</v>
+        <v>0.7659160000000005</v>
       </c>
       <c r="F14">
-        <v>0.988909340278569</v>
+        <v>1.182999999999997</v>
       </c>
       <c r="G14">
-        <v>1.026335940885563</v>
+        <v>0.4634119999999995</v>
       </c>
       <c r="H14">
-        <v>0.9497030985109445</v>
+        <v>1.947848000000001</v>
       </c>
       <c r="I14">
-        <v>1.013452596606048</v>
+        <v>0.6829880000000003</v>
       </c>
       <c r="J14">
-        <v>0.9828398189924936</v>
+        <v>1.136060000000001</v>
       </c>
       <c r="K14">
-        <v>1.008048213936067</v>
+        <v>0.7768200000000003</v>
       </c>
       <c r="L14">
-        <v>0.9696829808144757</v>
+        <v>1.530199999999998</v>
       </c>
       <c r="M14">
-        <v>1.026335940885563</v>
+        <v>0.4634119999999995</v>
       </c>
       <c r="N14">
-        <v>0.9784767762540939</v>
+        <v>1.356882000000001</v>
       </c>
       <c r="O14">
-        <v>0.9930497084180799</v>
+        <v>1.090043999999999</v>
       </c>
       <c r="P14">
-        <v>0.9932778055026754</v>
+        <v>1.0607805</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.099346011518488</v>
+        <v>0.25</v>
       </c>
       <c r="D15">
-        <v>0.8489100163981035</v>
+        <v>2.57</v>
       </c>
       <c r="E15">
-        <v>1.033553092259564</v>
+        <v>0.53</v>
       </c>
       <c r="F15">
-        <v>0.9605383807356203</v>
+        <v>1.310550000000001</v>
       </c>
       <c r="G15">
-        <v>1.099346011518488</v>
+        <v>0.25</v>
       </c>
       <c r="H15">
-        <v>0.8489100163981035</v>
+        <v>2.57</v>
       </c>
       <c r="I15">
-        <v>1.056740995265274</v>
+        <v>0.4608249999999997</v>
       </c>
       <c r="J15">
-        <v>0.9677902454051207</v>
+        <v>1.17</v>
       </c>
       <c r="K15">
-        <v>1.029714758963691</v>
+        <v>0.68</v>
       </c>
       <c r="L15">
-        <v>0.8954914636872459</v>
+        <v>1.8727625</v>
       </c>
       <c r="M15">
-        <v>1.099346011518488</v>
+        <v>0.25</v>
       </c>
       <c r="N15">
-        <v>0.9412315543288339</v>
+        <v>1.55</v>
       </c>
       <c r="O15">
-        <v>0.985586875227944</v>
+        <v>1.1651375</v>
       </c>
       <c r="P15">
-        <v>0.9865106205291384</v>
+        <v>1.1055171875</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7618749660278448</v>
+        <v>0.5620568602624005</v>
       </c>
       <c r="D16">
-        <v>1.342963186989</v>
+        <v>1.9114556407808</v>
       </c>
       <c r="E16">
-        <v>0.9519747158388456</v>
+        <v>0.7238830004223979</v>
       </c>
       <c r="F16">
-        <v>1.054547556704468</v>
+        <v>1.1762715988992</v>
       </c>
       <c r="G16">
-        <v>0.7618749660278448</v>
+        <v>0.5620568602624005</v>
       </c>
       <c r="H16">
-        <v>1.342963186989</v>
+        <v>1.9114556407808</v>
       </c>
       <c r="I16">
-        <v>0.8963520568295001</v>
+        <v>0.6866615920640008</v>
       </c>
       <c r="J16">
-        <v>1.059311935314379</v>
+        <v>1.100670355763201</v>
       </c>
       <c r="K16">
-        <v>0.8977606274731419</v>
+        <v>0.8107865309184008</v>
       </c>
       <c r="L16">
-        <v>1.201449708837466</v>
+        <v>1.506247258931197</v>
       </c>
       <c r="M16">
-        <v>0.7618749660278448</v>
+        <v>0.5620568602624005</v>
       </c>
       <c r="N16">
-        <v>1.147468951413923</v>
+        <v>1.317669320601599</v>
       </c>
       <c r="O16">
-        <v>1.02784010639004</v>
+        <v>1.093416775091199</v>
       </c>
       <c r="P16">
-        <v>1.02077934425183</v>
+        <v>1.0597541047552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9928659333933656</v>
+      </c>
+      <c r="D17">
+        <v>0.9947532445060715</v>
+      </c>
+      <c r="E17">
+        <v>0.9987131245920812</v>
+      </c>
+      <c r="F17">
+        <v>0.9978421068447468</v>
+      </c>
+      <c r="G17">
+        <v>0.9928659333933656</v>
+      </c>
+      <c r="H17">
+        <v>0.9947532445060715</v>
+      </c>
+      <c r="I17">
+        <v>0.9972460587440232</v>
+      </c>
+      <c r="J17">
+        <v>0.9946392705666832</v>
+      </c>
+      <c r="K17">
+        <v>0.9948985477501557</v>
+      </c>
+      <c r="L17">
+        <v>0.9993227691788865</v>
+      </c>
+      <c r="M17">
+        <v>0.9928659333933656</v>
+      </c>
+      <c r="N17">
+        <v>0.9967331845490763</v>
+      </c>
+      <c r="O17">
+        <v>0.9960436023340662</v>
+      </c>
+      <c r="P17">
+        <v>0.9962851319470016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.026335940885563</v>
+      </c>
+      <c r="D18">
+        <v>0.9497030985109445</v>
+      </c>
+      <c r="E18">
+        <v>1.007250453997243</v>
+      </c>
+      <c r="F18">
+        <v>0.988909340278569</v>
+      </c>
+      <c r="G18">
+        <v>1.026335940885563</v>
+      </c>
+      <c r="H18">
+        <v>0.9497030985109445</v>
+      </c>
+      <c r="I18">
+        <v>1.013452596606048</v>
+      </c>
+      <c r="J18">
+        <v>0.9828398189924936</v>
+      </c>
+      <c r="K18">
+        <v>1.008048213936067</v>
+      </c>
+      <c r="L18">
+        <v>0.9696829808144757</v>
+      </c>
+      <c r="M18">
+        <v>1.026335940885563</v>
+      </c>
+      <c r="N18">
+        <v>0.9784767762540939</v>
+      </c>
+      <c r="O18">
+        <v>0.9930497084180799</v>
+      </c>
+      <c r="P18">
+        <v>0.9932778055026754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.099346011518488</v>
+      </c>
+      <c r="D19">
+        <v>0.8489100163981035</v>
+      </c>
+      <c r="E19">
+        <v>1.033553092259564</v>
+      </c>
+      <c r="F19">
+        <v>0.9605383807356203</v>
+      </c>
+      <c r="G19">
+        <v>1.099346011518488</v>
+      </c>
+      <c r="H19">
+        <v>0.8489100163981035</v>
+      </c>
+      <c r="I19">
+        <v>1.056740995265274</v>
+      </c>
+      <c r="J19">
+        <v>0.9677902454051207</v>
+      </c>
+      <c r="K19">
+        <v>1.029714758963691</v>
+      </c>
+      <c r="L19">
+        <v>0.8954914636872461</v>
+      </c>
+      <c r="M19">
+        <v>1.099346011518488</v>
+      </c>
+      <c r="N19">
+        <v>0.9412315543288339</v>
+      </c>
+      <c r="O19">
+        <v>0.985586875227944</v>
+      </c>
+      <c r="P19">
+        <v>0.9865106205291384</v>
       </c>
     </row>
   </sheetData>
